--- a/Copy of Confidential.xlsx
+++ b/Copy of Confidential.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="10920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bank" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Login!$A$1:$A$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Login!$A$1:$A$16</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>Location</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Indian</t>
   </si>
   <si>
-    <t>gkp</t>
-  </si>
-  <si>
     <t>varnika25</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Vijaya</t>
   </si>
   <si>
-    <t>pune</t>
-  </si>
-  <si>
     <t>VARNIKA25</t>
   </si>
   <si>
@@ -72,21 +66,12 @@
     <t>ICICI</t>
   </si>
   <si>
-    <t>varanasi</t>
-  </si>
-  <si>
     <t>s25Sp02v25#</t>
   </si>
   <si>
-    <t>mobile service</t>
-  </si>
-  <si>
     <t>HDFC</t>
   </si>
   <si>
-    <t>trivandrum</t>
-  </si>
-  <si>
     <t>s25S&amp;p02v</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>icici</t>
   </si>
   <si>
-    <t>refer42462</t>
-  </si>
-  <si>
     <t>dpshIaaa#83</t>
   </si>
   <si>
@@ -153,24 +135,6 @@
     <t>Issue</t>
   </si>
   <si>
-    <t>Gmail</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Outlook</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>FreeCharge</t>
-  </si>
-  <si>
-    <t>Irctc</t>
-  </si>
-  <si>
     <t>Union</t>
   </si>
   <si>
@@ -208,13 +172,55 @@
   </si>
   <si>
     <t>sanasri$1990</t>
+  </si>
+  <si>
+    <t>referacc42462</t>
+  </si>
+  <si>
+    <t>Policy@123</t>
+  </si>
+  <si>
+    <t>OUTLOOK.COM</t>
+  </si>
+  <si>
+    <t>varnikap@outlook.com</t>
+  </si>
+  <si>
+    <t>Buxipur#01</t>
+  </si>
+  <si>
+    <t>outlook.com</t>
+  </si>
+  <si>
+    <t>13-2022</t>
+  </si>
+  <si>
+    <t>Gorakhpur</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Varanasi</t>
+  </si>
+  <si>
+    <t>Trivandrum</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Linked</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -248,8 +254,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +299,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -290,10 +315,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,7 +381,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,8 +396,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,7 +556,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -495,7 +590,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -671,49 +765,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B21" sqref="A21:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="23" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="38" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
+    <row r="1" spans="1:14" s="7" customFormat="1">
+      <c r="A1" s="25"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="F1" s="37"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>38</v>
+    <row r="2" spans="1:14">
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" s="10" customFormat="1">
+      <c r="A3" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
@@ -721,11 +815,11 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>41</v>
+      <c r="F3" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>1</v>
@@ -733,31 +827,33 @@
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="M4" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>40</v>
+      <c r="J3" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="10" customFormat="1">
+      <c r="A4" s="23"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" s="10" customFormat="1">
+      <c r="A5" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="9">
         <v>6044309446</v>
@@ -765,38 +861,36 @@
       <c r="H5" s="9">
         <v>2590</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>6</v>
+      <c r="I5" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:14" s="10" customFormat="1">
+      <c r="A6" s="24"/>
       <c r="C6" s="19"/>
-      <c r="M6" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>40</v>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" s="10" customFormat="1">
+      <c r="A7" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="G7" s="9">
         <v>404801141000202</v>
@@ -804,65 +898,70 @@
       <c r="H7" s="9">
         <v>7868</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
+      <c r="I7" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>40</v>
+    <row r="8" spans="1:14" s="10" customFormat="1">
+      <c r="A8" s="24"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" s="10" customFormat="1">
+      <c r="A9" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
       <c r="G9" s="9">
         <v>20201561703</v>
       </c>
       <c r="H9" s="9">
         <v>2520</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="I9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>40</v>
+    <row r="10" spans="1:14" s="10" customFormat="1">
+      <c r="A10" s="24"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" s="10" customFormat="1">
+      <c r="A11" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="10">
         <v>75727375</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
       </c>
       <c r="G11" s="9">
         <v>50100212225360</v>
@@ -871,30 +970,28 @@
         <v>2520</v>
       </c>
       <c r="I11" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="10" customFormat="1">
+      <c r="A12" s="24"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" s="10" customFormat="1">
+      <c r="A13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="M12" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="G13" s="9">
         <v>20136600471</v>
@@ -902,267 +999,311 @@
       <c r="H13" s="9">
         <v>881</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="M14" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>27</v>
+      <c r="I13" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="10" customFormat="1">
+      <c r="A14" s="24"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1">
+      <c r="A15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F15" s="17"/>
       <c r="G15" s="9">
         <v>603701142462</v>
       </c>
       <c r="H15" s="9">
         <v>7003</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-    </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="I15" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="10" customFormat="1">
+      <c r="A16" s="24"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" s="10" customFormat="1">
+      <c r="A17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="9">
+        <v>265210509</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9">
+        <v>408002011007791</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="28" t="s">
+        <v>60</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="L17" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="10" customFormat="1">
+      <c r="A18" s="23"/>
       <c r="B18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="18"/>
       <c r="H18" s="9"/>
       <c r="J18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>40</v>
+    <row r="19" spans="1:20">
+      <c r="A19" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="C19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2">
+        <v>877214783</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="2">
+        <v>917010072721814</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1375</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="M19" s="11"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="G21" s="4"/>
+      <c r="I21" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="E22" s="2"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>39</v>
+    <row r="23" spans="1:20">
+      <c r="A23" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G23" s="1">
+        <v>286748821</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="2">
+        <v>288077921</v>
+      </c>
+      <c r="H24" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" s="2">
+        <v>88500</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>39</v>
+    <row r="25" spans="1:20">
+      <c r="A25" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
         <v>100063645827</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="27" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="35" customFormat="1">
+      <c r="A27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="T27" s="36"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>39</v>
+    <row r="29" spans="1:20">
+      <c r="A29" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" s="38" customFormat="1">
+      <c r="C33" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
     <hyperlink ref="E7" r:id="rId2"/>
     <hyperlink ref="F7" r:id="rId3" display="sana25@"/>
     <hyperlink ref="E13" r:id="rId4" display="majSel@83"/>
+    <hyperlink ref="E17" r:id="rId5"/>
+    <hyperlink ref="D21" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="23" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
+    <row r="1" spans="1:15" s="7" customFormat="1">
+      <c r="A1" s="25"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>38</v>
+    <row r="3" spans="1:15" s="10" customFormat="1">
+      <c r="A3" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
@@ -1170,415 +1311,194 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="1:15" s="10" customFormat="1">
+      <c r="A4" s="23"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="E7" s="9"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="1">
+        <v>286748821</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="H9" s="2">
+        <v>288077921</v>
+      </c>
+      <c r="I9" s="2">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2">
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="43" customFormat="1">
+      <c r="A10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="D10" s="44">
+        <v>100063645827</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="1:15" s="43" customFormat="1">
+      <c r="A11" s="50"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" s="35" customFormat="1">
+      <c r="A12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="M4" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9">
-        <v>6044309446</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2590</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="C6" s="19"/>
-      <c r="M6" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="9">
-        <v>404801141000202</v>
-      </c>
-      <c r="H7" s="9">
-        <v>7868</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
-        <v>20201561703</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2520</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10">
-        <v>75727375</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="9">
-        <v>50100212225360</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2520</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="M12" s="10" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" s="43" customFormat="1">
+      <c r="A13" s="50"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" s="43" customFormat="1">
+      <c r="A14" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" s="43" customFormat="1">
+      <c r="A15" s="50"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" s="43" customFormat="1">
+      <c r="A16" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="38" customFormat="1">
+      <c r="A18" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="9">
-        <v>20136600471</v>
-      </c>
-      <c r="H13" s="9">
-        <v>881</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="M14" s="10" t="s">
+      <c r="D18" s="32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="9">
-        <v>603701142462</v>
-      </c>
-      <c r="H15" s="9">
-        <v>7003</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-    </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="E18" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="2">
-        <v>100063645827</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A31"/>
+  <autoFilter ref="A1:A16"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3" display="sana25@"/>
-    <hyperlink ref="E13" r:id="rId4" display="majSel@83"/>
+    <hyperlink ref="D6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
